--- a/TACO2019.xlsx
+++ b/TACO2019.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D1D6361E-C373-4ACF-B11E-3B71FFFE3F0B}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FB162791-A490-46CA-8E8A-C2BA9E53BFB8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig-elpase-time" sheetId="2" r:id="rId1"/>
-    <sheet name="fig-data-tlb-under-code-superpg" sheetId="3" r:id="rId2"/>
-    <sheet name="data-superpg" sheetId="1" r:id="rId3"/>
+    <sheet name="fig-dtlb-code-sup-data-nosup" sheetId="3" r:id="rId2"/>
+    <sheet name="fig-dlb-code-sup-data-sup" sheetId="4" r:id="rId3"/>
+    <sheet name="data-superpg" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Intel Skylake processor</t>
   </si>
@@ -109,7 +109,22 @@
     <t>code superpage, data no superpage / code no superpagge, data no superpage</t>
   </si>
   <si>
-    <t>code superpage, data superpage / code no sueprpage, data superpage</t>
+    <t>code w/o superpg, data w/t superpg</t>
+  </si>
+  <si>
+    <t>code w/t superpg, data w/o superpg</t>
+  </si>
+  <si>
+    <t>code w/t superpg, data w/t superpg</t>
+  </si>
+  <si>
+    <t>normalized to data no superpg</t>
+  </si>
+  <si>
+    <t>normalized to data superpg</t>
+  </si>
+  <si>
+    <t>code superpage, data superpage / code no superpagge, data superpage</t>
   </si>
 </sst>
 </file>
@@ -245,7 +260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code no superpage, data superpage </c:v>
+                  <c:v> code w/o superpg, data w/t superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,10 +316,10 @@
                   <c:v>0.59111913452409148</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95962310781587901</c:v>
+                  <c:v>0.95834018377450181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95962310781587901</c:v>
+                  <c:v>0.94317910192931542</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.0001952633578108</c:v>
@@ -330,7 +345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code superpage, data no superpage </c:v>
+                  <c:v> code w/t superpg, data w/o superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -386,10 +401,10 @@
                   <c:v>0.98373537877238537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9887007447959768</c:v>
+                  <c:v>0.96440947487430251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9887007447959768</c:v>
+                  <c:v>0.99642857142857144</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.98628202051916747</c:v>
@@ -415,7 +430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code superpage, data superpage </c:v>
+                  <c:v> code w/t superpg, data w/t superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -471,10 +486,10 @@
                   <c:v>0.56374615812400097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9526365180909856</c:v>
+                  <c:v>0.94043884337522177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9526365180909856</c:v>
+                  <c:v>0.94227817009517967</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.98533241886613199</c:v>
@@ -584,7 +599,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -597,22 +612,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
                   <a:t>Elapse</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
                   <a:t> Time</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2000"/>
+                <a:endParaRPr lang="en-US" sz="2000" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -637,7 +652,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -702,10 +717,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24247755749419886"/>
+          <c:x val="1.6643780760874399E-2"/>
           <c:y val="0.64654368793085637"/>
-          <c:w val="0.61764637316941218"/>
-          <c:h val="0.17977005096726487"/>
+          <c:w val="0.96959511576434765"/>
+          <c:h val="0.10504456653971232"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -861,16 +876,16 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.93739559102557135</c:v>
+                  <c:v>0.51541159723365515</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9725114905184209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70296576895721952</c:v>
+                  <c:v>0.74256563675374176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9488834135343307</c:v>
+                  <c:v>0.92959391410953796</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95189771697377712</c:v>
@@ -884,91 +899,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB53-4DA9-834E-1FA34604E180}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'data-superpg'!$C$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> code superpage, data superpage / code no sueprpage, data superpage </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'data-superpg'!$A$72:$A$77</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Clang</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PostgreSQL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Javac</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Derby</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Node.js</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MySQL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'data-superpg'!$C$72:$C$77</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.9334557455450897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98361426054840106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87869444641081806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68539774451855962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91413733839426947</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72003049098828042</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB53-4DA9-834E-1FA34604E180}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -980,7 +910,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="300"/>
+        <c:gapWidth val="400"/>
         <c:overlap val="-27"/>
         <c:axId val="934866728"/>
         <c:axId val="934860496"/>
@@ -1065,7 +995,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1078,23 +1008,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
                   <a:t> Data Page </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="1"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Table Walking Cycles</a:t>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>Table Walk Cycles</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1119,7 +1049,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1178,19 +1108,352 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.2364950578051224E-2"/>
-          <c:y val="0.76402585733936568"/>
-          <c:w val="0.9876350494219488"/>
-          <c:h val="0.11883689680122766"/>
+          <c:x val="0.18688903466091539"/>
+          <c:y val="3.475235952197317E-2"/>
+          <c:w val="0.79698858946637574"/>
+          <c:h val="0.51799883912314038"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code superpage, data superpage / code no superpagge, data superpage </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$72:$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$B$82:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49154000020318295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98361426054840106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90431492898636334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51917900623807023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91413733839426947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72003049098828042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-101E-4031-994E-133569B25241}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:overlap val="-27"/>
+        <c:axId val="934866728"/>
+        <c:axId val="934860496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="934866728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934860496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="934860496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Data Page </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>Table Walk Cycles</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9302880931233973E-2"/>
+              <c:y val="0.13568710393028377"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934866728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1198,27 +1461,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1333,6 +1576,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1837,6 +2120,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2346,7 +3132,8 @@
     <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2354,10 +3141,23 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35D17F88-6A46-4034-9011-E7AA1015A24A}">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{81477436-2C6E-4FA7-9190-7774881B2D35}">
+  <sheetPr/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2405,6 +3205,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62C6D47-F9D5-4409-BA05-CA7617829327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660352" cy="6288350"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5DD54-A6A1-4762-8D2E-D95B955CB578}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:C72"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2746,32 +3579,32 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>2674726.7326000002</v>
+        <v>1585133.47765</v>
       </c>
       <c r="C5" s="3">
-        <v>2690581.50055</v>
+        <v>1620427.36555</v>
       </c>
       <c r="D5" s="3">
-        <v>193823.9283</v>
+        <v>656908.25349999999</v>
       </c>
       <c r="E5" s="3">
-        <v>148097.10935000001</v>
+        <v>646197.75254999998</v>
       </c>
       <c r="I5" s="3">
         <f>C5/B5</f>
-        <v>1.0059276215984083</v>
+        <v>1.022265562110469</v>
       </c>
       <c r="J5" s="3">
         <f>D5/B5</f>
-        <v>7.2464946021454354E-2</v>
+        <v>0.41441825736586102</v>
       </c>
       <c r="K5" s="3">
         <f>E5/B5</f>
-        <v>5.5369061648417608E-2</v>
+        <v>0.40766141253164639</v>
       </c>
       <c r="L5" s="3">
         <f>E5/C5</f>
-        <v>5.5042788824544615E-2</v>
+        <v>0.39878230045236845</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -2779,32 +3612,32 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>269532641.56809998</v>
+        <v>538604.22155000002</v>
       </c>
       <c r="C6" s="3">
-        <v>270569085.08074999</v>
+        <v>550671.14994999999</v>
       </c>
       <c r="D6" s="3">
-        <v>254972162.96145001</v>
+        <v>437690.78615</v>
       </c>
       <c r="E6" s="3">
-        <v>254927708.68669999</v>
+        <v>420984.0122</v>
       </c>
       <c r="I6" s="3">
         <f>C6/B6</f>
-        <v>1.0038453357879777</v>
+        <v>1.0224040731899087</v>
       </c>
       <c r="J6" s="3">
         <f>D6/B6</f>
-        <v>0.94597879306217125</v>
+        <v>0.81263898171909899</v>
       </c>
       <c r="K6" s="3">
         <f>E6/B6</f>
-        <v>0.94581386211172525</v>
+        <v>0.78162033522219421</v>
       </c>
       <c r="L6" s="3">
         <f>E6/C6</f>
-        <v>0.94219082202468951</v>
+        <v>0.76449258734223613</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -2813,35 +3646,35 @@
       </c>
       <c r="B7" s="4">
         <f>B5+B6</f>
-        <v>272207368.30069995</v>
+        <v>2123737.6992000001</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:E7" si="0">C5+C6</f>
-        <v>273259666.58129996</v>
+        <v>2171098.5154999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>255165986.88975</v>
+        <v>1094599.0396499999</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>255075805.79604998</v>
+        <v>1067181.7647500001</v>
       </c>
       <c r="I7" s="3">
         <f>C7/B7</f>
-        <v>1.0038657964594022</v>
+        <v>1.0223006901077474</v>
       </c>
       <c r="J7" s="3">
         <f>D7/B7</f>
-        <v>0.93739559102557135</v>
+        <v>0.51541159723365515</v>
       </c>
       <c r="K7" s="3">
         <f>E7/B7</f>
-        <v>0.93706429546122649</v>
+        <v>0.50250168142327623</v>
       </c>
       <c r="L7" s="3">
         <f>E7/C7</f>
-        <v>0.9334557455450897</v>
+        <v>0.49154000020318295</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -2849,32 +3682,32 @@
         <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>1585133.47765</v>
+        <v>2674726.7326000002</v>
       </c>
       <c r="C8" s="3">
-        <v>1620427.36555</v>
+        <v>2690581.50055</v>
       </c>
       <c r="D8" s="3">
-        <v>656908.25349999999</v>
+        <v>193823.9283</v>
       </c>
       <c r="E8" s="3">
-        <v>646197.75254999998</v>
+        <v>148097.10935000001</v>
       </c>
       <c r="I8" s="3">
         <f>C8/B8</f>
-        <v>1.022265562110469</v>
+        <v>1.0059276215984083</v>
       </c>
       <c r="J8" s="3">
         <f>D8/B8</f>
-        <v>0.41441825736586102</v>
+        <v>7.2464946021454354E-2</v>
       </c>
       <c r="K8" s="3">
         <f>E8/B8</f>
-        <v>0.40766141253164639</v>
+        <v>5.5369061648417608E-2</v>
       </c>
       <c r="L8" s="3">
         <f>E8/C8</f>
-        <v>0.39878230045236845</v>
+        <v>5.5042788824544615E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -2905,10 +3738,6 @@
         <f>E9/B9</f>
         <v>0.92242822567088012</v>
       </c>
-      <c r="L9" s="3">
-        <f>E9/C9</f>
-        <v>0.91897869333498516</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -3058,16 +3887,16 @@
         <v>5</v>
       </c>
       <c r="B23" s="3">
-        <v>20877943.837000001</v>
+        <v>40715831.067000002</v>
       </c>
       <c r="C23" s="3">
-        <v>4515750.8480000002</v>
+        <v>8688710.7245000005</v>
       </c>
       <c r="D23" s="3">
-        <v>14619384.566</v>
+        <v>30202759.653499998</v>
       </c>
       <c r="E23" s="3">
-        <v>4030061.1965000001</v>
+        <v>7973910.0724999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3075,16 +3904,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="3">
-        <v>984439.28700000001</v>
+        <v>1871091.513</v>
       </c>
       <c r="C24" s="3">
-        <v>336751.87</v>
+        <v>653553.84750000003</v>
       </c>
       <c r="D24" s="3">
-        <v>749122.39800000004</v>
+        <v>1420825.6295</v>
       </c>
       <c r="E24" s="3">
-        <v>233805.99299999999</v>
+        <v>474439.25050000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3093,35 +3922,35 @@
       </c>
       <c r="B25" s="4">
         <f>B23+B24</f>
-        <v>21862383.124000002</v>
+        <v>42586922.579999998</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ref="C25:E25" si="2">C23+C24</f>
-        <v>4852502.7180000003</v>
+        <v>9342264.5720000006</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="2"/>
-        <v>15368506.964</v>
+        <v>31623585.283</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="2"/>
-        <v>4263867.1895000003</v>
+        <v>8448349.3229999989</v>
       </c>
       <c r="I25" s="3">
         <f>C25/B25</f>
-        <v>0.22195671398115052</v>
+        <v>0.21936932762517541</v>
       </c>
       <c r="J25" s="3">
         <f>D25/B25</f>
-        <v>0.70296576895721952</v>
+        <v>0.74256563675374176</v>
       </c>
       <c r="K25" s="3">
         <f>E25/B25</f>
-        <v>0.19503213191883134</v>
+        <v>0.1983789579331468</v>
       </c>
       <c r="L25" s="3">
         <f>E25/C25</f>
-        <v>0.87869444641081806</v>
+        <v>0.90431492898636334</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3129,32 +3958,32 @@
         <v>17</v>
       </c>
       <c r="B26" s="3">
-        <v>8594040.1539999992</v>
+        <v>16986050.2445</v>
       </c>
       <c r="C26" s="3">
-        <v>3060212.8679999998</v>
+        <v>5764950.7165000001</v>
       </c>
       <c r="D26" s="3">
-        <v>462685.40100000001</v>
+        <v>1180749.4624999999</v>
       </c>
       <c r="E26" s="3">
-        <v>252987.1115</v>
+        <v>332630.49300000002</v>
       </c>
       <c r="I26" s="3">
         <f>C26/B26</f>
-        <v>0.35608547472001956</v>
+        <v>0.33939324525233067</v>
       </c>
       <c r="J26" s="3">
         <f>D26/B26</f>
-        <v>5.3837938002261755E-2</v>
+        <v>6.9512891196252105E-2</v>
       </c>
       <c r="K26" s="3">
         <f>E26/B26</f>
-        <v>2.9437506337720565E-2</v>
+        <v>1.9582568531946037E-2</v>
       </c>
       <c r="L26" s="3">
         <f>E26/C26</f>
-        <v>8.2669775735352544E-2</v>
+        <v>5.7698757432213692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -3162,28 +3991,28 @@
         <v>14</v>
       </c>
       <c r="B27" s="3">
-        <v>776.57500000000005</v>
+        <v>524.60500000000002</v>
       </c>
       <c r="C27" s="3">
-        <v>809.25</v>
+        <v>547.41</v>
       </c>
       <c r="D27" s="3">
-        <v>785.45</v>
+        <v>543.96500000000003</v>
       </c>
       <c r="E27" s="3">
-        <v>815.18499999999995</v>
+        <v>557.83000000000004</v>
       </c>
       <c r="I27" s="3">
         <f>B27/C27</f>
-        <v>0.95962310781587901</v>
+        <v>0.95834018377450181</v>
       </c>
       <c r="J27" s="3">
         <f>B27/D27</f>
-        <v>0.9887007447959768</v>
+        <v>0.96440947487430251</v>
       </c>
       <c r="K27" s="3">
         <f>B27/E27</f>
-        <v>0.9526365180909856</v>
+        <v>0.94043884337522177</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -3196,16 +4025,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>47433019.658749998</v>
+        <v>95471868.693124995</v>
       </c>
       <c r="C32" s="3">
-        <v>1619882.3525</v>
+        <v>2867630.5165630002</v>
       </c>
       <c r="D32" s="3">
-        <v>45115197.759999998</v>
+        <v>88783582.809062004</v>
       </c>
       <c r="E32" s="3">
-        <v>1200854.4550000001</v>
+        <v>1521575.1243749999</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3213,16 +4042,16 @@
         <v>6</v>
       </c>
       <c r="B33" s="3">
-        <v>1730469.8025</v>
+        <v>3622480.2303129998</v>
       </c>
       <c r="C33" s="3">
-        <v>485031.66499999998</v>
+        <v>984319.51843699999</v>
       </c>
       <c r="D33" s="3">
-        <v>1535221.9412499999</v>
+        <v>3333920.8728129999</v>
       </c>
       <c r="E33" s="3">
-        <v>241848.86499999999</v>
+        <v>478276.46687499998</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3231,35 +4060,35 @@
       </c>
       <c r="B34" s="4">
         <f>B32+B33</f>
-        <v>49163489.46125</v>
+        <v>99094348.923437998</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" ref="C34:E34" si="3">C32+C33</f>
-        <v>2104914.0175000001</v>
+        <v>3851950.0350000001</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="3"/>
-        <v>46650419.701249994</v>
+        <v>92117503.681875005</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="3"/>
-        <v>1442703.32</v>
+        <v>1999851.5912499998</v>
       </c>
       <c r="I34" s="3">
         <f>C34/B34</f>
-        <v>4.2814577251662843E-2</v>
+        <v>3.887154087844185E-2</v>
       </c>
       <c r="J34" s="3">
         <f>D34/B34</f>
-        <v>0.9488834135343307</v>
+        <v>0.92959391410953796</v>
       </c>
       <c r="K34" s="3">
         <f>E34/B34</f>
-        <v>2.9345014680805345E-2</v>
+        <v>2.0181287964211963E-2</v>
       </c>
       <c r="L34" s="3">
         <f>E34/C34</f>
-        <v>0.68539774451855962</v>
+        <v>0.51917900623807023</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -3267,32 +4096,32 @@
         <v>17</v>
       </c>
       <c r="B35" s="3">
-        <v>5014041.3387500001</v>
+        <v>9583044.796875</v>
       </c>
       <c r="C35" s="3">
-        <v>1239456.130625</v>
+        <v>2362508.3725000001</v>
       </c>
       <c r="D35" s="3">
-        <v>817072.56874999998</v>
+        <v>2914273.7112500002</v>
       </c>
       <c r="E35" s="3">
-        <v>279641.88312499999</v>
+        <v>285642.35499999998</v>
       </c>
       <c r="I35" s="3">
         <f>C35/B35</f>
-        <v>0.24719703067585722</v>
+        <v>0.24653003534642834</v>
       </c>
       <c r="J35" s="3">
         <f>D35/B35</f>
-        <v>0.16295688717909454</v>
+        <v>0.30410728249964308</v>
       </c>
       <c r="K35" s="3">
         <f>E35/B35</f>
-        <v>5.5771754605181349E-2</v>
+        <v>2.980705621799316E-2</v>
       </c>
       <c r="L35" s="3">
         <f>E35/C35</f>
-        <v>0.22561660410198595</v>
+        <v>0.12090638844921171</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -3300,28 +4129,28 @@
         <v>14</v>
       </c>
       <c r="B36" s="3">
-        <v>776.57500000000005</v>
+        <v>414.315</v>
       </c>
       <c r="C36" s="3">
-        <v>809.25</v>
+        <v>439.27499999999998</v>
       </c>
       <c r="D36" s="3">
-        <v>785.45</v>
+        <v>415.8</v>
       </c>
       <c r="E36" s="3">
-        <v>815.18499999999995</v>
+        <v>439.69499999999999</v>
       </c>
       <c r="I36" s="3">
         <f>B36/C36</f>
-        <v>0.95962310781587901</v>
+        <v>0.94317910192931542</v>
       </c>
       <c r="J36" s="3">
         <f>B36/D36</f>
-        <v>0.9887007447959768</v>
+        <v>0.99642857142857144</v>
       </c>
       <c r="K36" s="3">
         <f>B36/E36</f>
-        <v>0.9526365180909856</v>
+        <v>0.94227817009517967</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
@@ -3600,18 +4429,18 @@
         <v>0.94643140561613248</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="63" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
@@ -3646,28 +4475,28 @@
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="4">
-        <v>0.95962310781587901</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.9887007447959768</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0.9526365180909856</v>
+      <c r="B63" s="3">
+        <v>0.95834018377450181</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.96440947487430251</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.94043884337522177</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="4">
-        <v>0.95962310781587901</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.9887007447959768</v>
-      </c>
-      <c r="D64" s="4">
-        <v>0.9526365180909856</v>
+      <c r="B64" s="3">
+        <v>0.94317910192931542</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.99642857142857144</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.94227817009517967</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -3698,6 +4527,11 @@
         <v>0.94643140561613248</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="71" spans="1:4" ht="126" x14ac:dyDescent="0.5">
       <c r="A71" s="6" t="s">
         <v>23</v>
@@ -3705,9 +4539,7 @@
       <c r="B71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -3715,71 +4547,139 @@
         <v>18</v>
       </c>
       <c r="B72" s="3">
-        <v>0.93739559102557135</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.9334557455450897</v>
-      </c>
+        <f>$D7/$B7</f>
+        <v>0.51541159723365515</v>
+      </c>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
+        <f>$D15/$B15</f>
         <v>0.9725114905184209</v>
       </c>
-      <c r="C73" s="4">
-        <v>0.98361426054840106</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="4">
-        <v>0.70296576895721952</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.87869444641081806</v>
-      </c>
+      <c r="B74" s="3">
+        <f>$D25/$B25</f>
+        <v>0.74256563675374176</v>
+      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="4">
-        <v>0.9488834135343307</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0.68539774451855962</v>
-      </c>
+      <c r="B75" s="3">
+        <f>$D34/$B34</f>
+        <v>0.92959391410953796</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
+        <f>$D43/$B43</f>
         <v>0.95189771697377712</v>
       </c>
-      <c r="C76" s="4">
-        <v>0.91413733839426947</v>
-      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
+        <f>$D51/$B51</f>
         <v>0.8430629208604945</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="94.5" x14ac:dyDescent="0.5">
+      <c r="A81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="3">
+        <f>$E7/$C7</f>
+        <v>0.49154000020318295</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="3">
+        <f>$E15/$C15</f>
+        <v>0.98361426054840106</v>
+      </c>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3">
+        <f>$E25/$C25</f>
+        <v>0.90431492898636334</v>
+      </c>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3">
+        <f>$E34/$C34</f>
+        <v>0.51917900623807023</v>
+      </c>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3">
+        <f>$E43/$C43</f>
+        <v>0.91413733839426947</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3">
+        <f>$E51/$C51</f>
         <v>0.72003049098828042</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="C87" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TACO2019.xlsx
+++ b/TACO2019.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FB162791-A490-46CA-8E8A-C2BA9E53BFB8}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="11_F25DC773A252ABEACE02ECA5E39F7D7C5ADE589E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E29BDE9A-4681-4BAA-9C37-26012A8522E2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fig-elpase-time" sheetId="2" r:id="rId1"/>
-    <sheet name="fig-dtlb-code-sup-data-nosup" sheetId="3" r:id="rId2"/>
-    <sheet name="fig-dlb-code-sup-data-sup" sheetId="4" r:id="rId3"/>
-    <sheet name="data-superpg" sheetId="1" r:id="rId4"/>
+    <sheet name="fig-elapsed-time" sheetId="2" r:id="rId1"/>
+    <sheet name="fig-user-exec-cycles" sheetId="6" r:id="rId2"/>
+    <sheet name="fig-dtlb-data-pgwalk-cycles" sheetId="3" r:id="rId3"/>
+    <sheet name="fig-dtlb-code-pgwalk-cycles" sheetId="7" r:id="rId4"/>
+    <sheet name="data-superpg" sheetId="1" r:id="rId5"/>
+    <sheet name="code-superpg-impact-on-os" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>Intel Skylake processor</t>
   </si>
@@ -100,31 +102,61 @@
     <t>Elapsed Time Figure</t>
   </si>
   <si>
-    <t>data TLB performance Figure</t>
+    <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
   </si>
   <si>
-    <t>Col E/ Col C</t>
+    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
   </si>
   <si>
-    <t>code superpage, data no superpage / code no superpagge, data no superpage</t>
+    <t>INST_RETIRED.ANY_P (os + usr)</t>
   </si>
   <si>
-    <t>code w/o superpg, data w/t superpg</t>
+    <t>INST_RETIRED.ANY_P,usr</t>
   </si>
   <si>
-    <t>code w/t superpg, data w/o superpg</t>
+    <t>CPU_CLK_UNHALTED.THREAD_P,os</t>
   </si>
   <si>
-    <t>code w/t superpg, data w/t superpg</t>
+    <t>INST_RETIRED.ANY_P,os</t>
   </si>
   <si>
-    <t>normalized to data no superpg</t>
+    <t>CPU_CLK_UNHALTED.THREAD_P</t>
   </si>
   <si>
-    <t>normalized to data superpg</t>
+    <t>INST_RETIRED.ANY_P (os + user)</t>
   </si>
   <si>
-    <t>code superpage, data superpage / code no superpagge, data superpage</t>
+    <t>INST_RETIRED.ANY_P</t>
+  </si>
+  <si>
+    <t>Intel Skylake processors</t>
+  </si>
+  <si>
+    <t>stock kernel</t>
+  </si>
+  <si>
+    <t>map all code with superpages</t>
+  </si>
+  <si>
+    <t>code_superpg_data_no_superpg</t>
+  </si>
+  <si>
+    <t>code_superpg_data_superpg</t>
+  </si>
+  <si>
+    <t>User-space execution time Figure</t>
+  </si>
+  <si>
+    <t>code_no_superpg_data_superpg</t>
+  </si>
+  <si>
+    <t>PostgreSQL-r</t>
+  </si>
+  <si>
+    <t>data page table walk cycles</t>
+  </si>
+  <si>
+    <t>instruction page table walk cycles</t>
   </si>
 </sst>
 </file>
@@ -192,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -202,6 +234,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -256,11 +291,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-superpg'!$B$60</c:f>
+              <c:f>'data-superpg'!$B$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code w/o superpg, data w/t superpg </c:v>
+                  <c:v> code_no_superpg_data_superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -279,7 +314,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data-superpg'!$A$61:$A$66</c:f>
+              <c:f>'data-superpg'!$A$99:$A$104</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -305,12 +340,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data-superpg'!$B$61:$B$66</c:f>
+              <c:f>'data-superpg'!$B$99:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.00375365866577</c:v>
+                  <c:v>1.0039305990337721</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59111913452409148</c:v>
@@ -341,11 +376,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-superpg'!$C$60</c:f>
+              <c:f>'data-superpg'!$C$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code w/t superpg, data w/o superpg </c:v>
+                  <c:v> code_superpg_data_no_superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -364,7 +399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data-superpg'!$A$61:$A$66</c:f>
+              <c:f>'data-superpg'!$A$99:$A$104</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -390,12 +425,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data-superpg'!$C$61:$C$66</c:f>
+              <c:f>'data-superpg'!$C$99:$C$104</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.92219103128893265</c:v>
+                  <c:v>0.94589073647791544</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98373537877238537</c:v>
@@ -426,11 +461,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-superpg'!$D$60</c:f>
+              <c:f>'data-superpg'!$D$98</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code w/t superpg, data w/t superpg </c:v>
+                  <c:v> code_superpg_data_superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -449,7 +484,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data-superpg'!$A$61:$A$66</c:f>
+              <c:f>'data-superpg'!$A$99:$A$104</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -475,12 +510,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data-superpg'!$D$61:$D$66</c:f>
+              <c:f>'data-superpg'!$D$99:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.92242822567088012</c:v>
+                  <c:v>0.94595777526632174</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.56374615812400097</c:v>
@@ -807,10 +842,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18688903466091539"/>
+          <c:x val="0.18103732966050343"/>
           <c:y val="3.475235952197317E-2"/>
-          <c:w val="0.79698858946637574"/>
-          <c:h val="0.51799883912314038"/>
+          <c:w val="0.80284034644319302"/>
+          <c:h val="0.51361470019957534"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -822,11 +857,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-superpg'!$B$71</c:f>
+              <c:f>'data-superpg'!$B$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code superpage, data no superpage / code no superpagge, data no superpage </c:v>
+                  <c:v> code_no_superpg_data_superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -845,14 +880,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data-superpg'!$A$72:$A$77</c:f>
+              <c:f>'data-superpg'!$A$107:$A$112</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Clang</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PostgreSQL</c:v>
+                  <c:v>PostgreSQL-r</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Javac</c:v>
@@ -871,34 +906,204 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data-superpg'!$B$72:$B$77</c:f>
+              <c:f>'data-superpg'!$B$107:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.51541159723365515</c:v>
+                  <c:v>1.0029947169543463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9725114905184209</c:v>
+                  <c:v>0.88201671039135865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74256563675374176</c:v>
+                  <c:v>0.97747891928453701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92959391410953796</c:v>
+                  <c:v>0.94268489281917445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95189771697377712</c:v>
+                  <c:v>1.0011855674076016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8430629208604945</c:v>
+                  <c:v>0.96774127889441341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB53-4DA9-834E-1FA34604E180}"/>
+              <c16:uniqueId val="{00000000-9BE4-47A8-95AF-6624896783D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$C$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_no_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$107:$A$112</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL-r</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$C$107:$C$112</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.2259364178484303E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92719253598408291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97031984559671169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98995310596192421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98681404436697462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96420623196891575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BE4-47A8-95AF-6624896783D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$107:$A$112</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL-r</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$D$107:$D$112</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5288601303161364E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81871464638676927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94999158731929345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9445209134364374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98565334395603588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93210510926701651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BE4-47A8-95AF-6624896783D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -910,7 +1115,574 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="400"/>
+        <c:gapWidth val="300"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930038008"/>
+        <c:axId val="930039976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930038008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930039976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="930039976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+                  <a:t> user-space </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+                  <a:t>exeuction time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5510916877281658E-2"/>
+              <c:y val="0.10930021388758578"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930038008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.957668695221626E-2"/>
+          <c:y val="0.76166132610303183"/>
+          <c:w val="0.96959511576434765"/>
+          <c:h val="0.10504456653971232"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18688903466091539"/>
+          <c:y val="3.475235952197317E-2"/>
+          <c:w val="0.79698858946637574"/>
+          <c:h val="0.51799883912314038"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$B$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_no_superpg_data_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$117:$A$122</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$B$117:$B$122</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72238176334109028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21936932762517541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.887154087844185E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0018373134667715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41661062799235743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB53-4DA9-834E-1FA34604E180}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$C$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_no_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$117:$A$122</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$C$117:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.51390766551399991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9725114905184209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74256563675374176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92959391410953796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95189771697377712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8430629208604945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BB1-4C63-863C-E8AC7A163CAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$D$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$117:$A$122</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$D$117:$D$122</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50130194702353226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71054500398239651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1983789579331468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0181287964211963E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91581689523658005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.299972355024273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BB1-4C63-863C-E8AC7A163CAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
         <c:overlap val="-27"/>
         <c:axId val="934866728"/>
         <c:axId val="934860496"/>
@@ -1008,12 +1780,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Normalized</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> Data Page </a:t>
+                  <a:t>Normalized data page </a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -1022,9 +1790,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t>Table Walk Cycles</a:t>
+                  <a:t>table walk cycles</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1108,6 +1875,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9024741719505165E-2"/>
+          <c:y val="0.74483990235912445"/>
+          <c:w val="0.90964939993201199"/>
+          <c:h val="8.9947442492863794E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1142,7 +1950,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1178,11 +1986,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'data-superpg'!$B$81</c:f>
+              <c:f>'data-superpg'!$B$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> code superpage, data superpage / code no superpagge, data superpage </c:v>
+                  <c:v> code_no_superpg_data_superpg </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,14 +2000,16 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'data-superpg'!$A$72:$A$77</c:f>
+              <c:f>'data-superpg'!$A$126:$A$131</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1225,34 +2035,204 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'data-superpg'!$B$82:$B$87</c:f>
+              <c:f>'data-superpg'!$B$126:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.49154000020318295</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98361426054840106</c:v>
+                  <c:v>0.89048689152749338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90431492898636334</c:v>
+                  <c:v>0.33939324525233067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51917900623807023</c:v>
+                  <c:v>0.24653003534642834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91413733839426947</c:v>
+                  <c:v>0.99750827977902956</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72003049098828042</c:v>
+                  <c:v>0.75293800314838544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-101E-4031-994E-133569B25241}"/>
+              <c16:uniqueId val="{00000000-9DBB-4A50-AD31-95E1C58758E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$C$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_no_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$126:$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$C$126:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.51390766551399991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49521653197839971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9512891196252105E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30410728249964308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94334026594687959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58594840635220036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DBB-4A50-AD31-95E1C58758E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'data-superpg'!$D$125</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> code_superpg_data_superpg </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'data-superpg'!$A$126:$A$131</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clang</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PostgreSQL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Javac</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Derby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Node.js</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-superpg'!$D$126:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50130194702353226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46835345716726617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9582568531946037E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.980705621799316E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95721382922337162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44059687296947225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DBB-4A50-AD31-95E1C58758E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1264,7 +2244,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="400"/>
+        <c:gapWidth val="300"/>
         <c:overlap val="-27"/>
         <c:axId val="934866728"/>
         <c:axId val="934860496"/>
@@ -1362,12 +2342,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Normalized</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> Data Page </a:t>
+                  <a:t>Normalized instruction page </a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -1376,9 +2352,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t>Table Walk Cycles</a:t>
+                  <a:t>table walk cycles</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1462,6 +2437,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9024741719505165E-2"/>
+          <c:y val="0.74483990235912445"/>
+          <c:w val="0.90964939993201199"/>
+          <c:h val="8.9947442492863794E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1616,6 +2632,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2623,6 +3679,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3138,6 +4697,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E6CE096A-B8E5-427E-9DF0-3FC8AEEB7D91}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{35D17F88-6A46-4034-9011-E7AA1015A24A}">
   <sheetPr/>
   <sheetViews>
@@ -3149,11 +4720,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{81477436-2C6E-4FA7-9190-7774881B2D35}">
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BC8A0D55-59B0-4541-B466-83BBB6F346F1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3204,7 +4775,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62C6D47-F9D5-4409-BA05-CA7617829327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCD0E62-5A2F-423C-922D-295298FD405C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +4808,40 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5DD54-A6A1-4762-8D2E-D95B955CB578}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62C6D47-F9D5-4409-BA05-CA7617829327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660352" cy="6288350"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8774A05A-FCE2-4DE8-BA19-30D17FB0E0CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,32 +5127,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.265625" customWidth="1"/>
-    <col min="2" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.86328125" customWidth="1"/>
+    <col min="2" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.06640625" style="3"/>
     <col min="10" max="10" width="11.6640625" style="3" customWidth="1"/>
     <col min="11" max="12" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="63" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3570,1119 +5174,2332 @@
       <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>1585133.47765</v>
+        <v>1587749.1723499999</v>
       </c>
       <c r="C5" s="3">
-        <v>1620427.36555</v>
+        <v>1623758.652</v>
       </c>
       <c r="D5" s="3">
-        <v>656908.25349999999</v>
+        <v>657411.55735000002</v>
       </c>
       <c r="E5" s="3">
-        <v>646197.75254999998</v>
+        <v>647626.05870000005</v>
       </c>
       <c r="I5" s="3">
         <f>C5/B5</f>
-        <v>1.022265562110469</v>
+        <v>1.0226795770245642</v>
       </c>
       <c r="J5" s="3">
         <f>D5/B5</f>
-        <v>0.41441825736586102</v>
+        <v>0.41405252718663149</v>
       </c>
       <c r="K5" s="3">
         <f>E5/B5</f>
-        <v>0.40766141253164639</v>
-      </c>
-      <c r="L5" s="3">
-        <f>E5/C5</f>
-        <v>0.39878230045236845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+        <v>0.40788940090673137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>538604.22155000002</v>
+        <v>539639.92255000002</v>
       </c>
       <c r="C6" s="3">
-        <v>550671.14994999999</v>
+        <v>549522.79244999995</v>
       </c>
       <c r="D6" s="3">
-        <v>437690.78615</v>
+        <v>435870.00605000003</v>
       </c>
       <c r="E6" s="3">
-        <v>420984.0122</v>
+        <v>418838.23664999998</v>
       </c>
       <c r="I6" s="3">
-        <f>C6/B6</f>
-        <v>1.0224040731899087</v>
+        <f t="shared" ref="I6:I14" si="0">C6/B6</f>
+        <v>1.0183138227677813</v>
       </c>
       <c r="J6" s="3">
-        <f>D6/B6</f>
-        <v>0.81263898171909899</v>
+        <f t="shared" ref="J6:J14" si="1">D6/B6</f>
+        <v>0.8077052638921739</v>
       </c>
       <c r="K6" s="3">
-        <f>E6/B6</f>
-        <v>0.78162033522219421</v>
-      </c>
-      <c r="L6" s="3">
-        <f>E6/C6</f>
-        <v>0.76449258734223613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+        <f t="shared" ref="K6:K14" si="2">E6/B6</f>
+        <v>0.77614390475566186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4">
         <f>B5+B6</f>
-        <v>2123737.6992000001</v>
+        <v>2127389.0948999999</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:E7" si="0">C5+C6</f>
-        <v>2171098.5154999997</v>
+        <f t="shared" ref="C7:E7" si="3">C5+C6</f>
+        <v>2173281.4444499998</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="3"/>
+        <v>1093281.5634000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>1066464.29535</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>1094599.0396499999</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>1067181.7647500001</v>
-      </c>
-      <c r="I7" s="3">
-        <f>C7/B7</f>
-        <v>1.0223006901077474</v>
+        <v>1.0215721466562078</v>
       </c>
       <c r="J7" s="3">
-        <f>D7/B7</f>
-        <v>0.51541159723365515</v>
+        <f t="shared" si="1"/>
+        <v>0.51390766551399991</v>
       </c>
       <c r="K7" s="3">
-        <f>E7/B7</f>
-        <v>0.50250168142327623</v>
-      </c>
-      <c r="L7" s="3">
-        <f>E7/C7</f>
-        <v>0.49154000020318295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v>0.50130194702353226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>2674726.7326000002</v>
+        <v>2683057.7054499998</v>
       </c>
       <c r="C8" s="3">
-        <v>2690581.50055</v>
+        <v>2691092.7038500002</v>
       </c>
       <c r="D8" s="3">
-        <v>193823.9283</v>
+        <v>193876.04384999999</v>
       </c>
       <c r="E8" s="3">
-        <v>148097.10935000001</v>
+        <v>148342.50774999999</v>
       </c>
       <c r="I8" s="3">
-        <f>C8/B8</f>
-        <v>1.0059276215984083</v>
+        <f t="shared" si="0"/>
+        <v>1.0029947169543463</v>
       </c>
       <c r="J8" s="3">
-        <f>D8/B8</f>
-        <v>7.2464946021454354E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2259364178484303E-2</v>
       </c>
       <c r="K8" s="3">
-        <f>E8/B8</f>
-        <v>5.5369061648417608E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <f>E8/C8</f>
-        <v>5.5042788824544615E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>5.5288601303161364E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>269553674.51539999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>270613181.92799997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>254968323.70770001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>254986394.25944999</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0039305990337721</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94589073647791544</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94595777526632174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>298525048.25484997</v>
+      </c>
+      <c r="C10" s="3">
+        <v>299636984.59315002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>278691753.02929997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>278672485.94489998</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0037247673011036</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93356237494477057</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93349783401424358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10-B9</f>
+        <v>28971373.739449978</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:E11" si="4">C10-C9</f>
+        <v>29023802.665150046</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>23723429.32159996</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="4"/>
+        <v>23686091.685449988</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.001809680347628</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81885759146091319</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81756881459842257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>249681812.76295</v>
+      </c>
+      <c r="C12" s="3">
+        <v>249649361.74445</v>
+      </c>
+      <c r="D12" s="3">
+        <v>239455846.833</v>
+      </c>
+      <c r="E12" s="3">
+        <v>239755297.35315001</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99987003050746504</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95904400958647873</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96024333811119711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>223635326.6234</v>
+      </c>
+      <c r="C13" s="3">
+        <v>223635313.88734999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>223635302.04449999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>223635180.03619999</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99999994304991879</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999989009383994</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99999934452574091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B12-B13</f>
+        <v>26046486.13955</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:E14" si="5">C12-C13</f>
+        <v>26014047.85710001</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="5"/>
+        <v>15820544.788500011</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="5"/>
+        <v>16120117.316950023</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99875460043722619</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.60739651036757236</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61889796691126819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B15" s="3">
         <v>434.24299999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C15" s="3">
         <v>435.87299999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D15" s="3">
         <v>400.45499999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E15" s="3">
         <v>400.55799999999999</v>
-      </c>
-      <c r="I9" s="3">
-        <f>C9/B9</f>
-        <v>1.00375365866577</v>
-      </c>
-      <c r="J9" s="3">
-        <f>D9/B9</f>
-        <v>0.92219103128893265</v>
-      </c>
-      <c r="K9" s="3">
-        <f>E9/B9</f>
-        <v>0.92242822567088012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>220662.41952699999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>148569.93176000001</v>
-      </c>
-      <c r="D13" s="3">
-        <v>212778.74656999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>144840.661222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3">
-        <v>57754.198665000004</v>
-      </c>
-      <c r="C14" s="3">
-        <v>52553.155832999997</v>
-      </c>
-      <c r="D14" s="3">
-        <v>57984.613772999997</v>
-      </c>
-      <c r="E14" s="3">
-        <v>52986.87586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <f>B13+B14</f>
-        <v>278416.61819199997</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:E15" si="1">C13+C14</f>
-        <v>201123.087593</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>270763.36034299998</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>197827.537082</v>
       </c>
       <c r="I15" s="3">
         <f>C15/B15</f>
-        <v>0.72238176334109028</v>
+        <v>1.00375365866577</v>
       </c>
       <c r="J15" s="3">
         <f>D15/B15</f>
-        <v>0.9725114905184209</v>
+        <v>0.92219103128893265</v>
       </c>
       <c r="K15" s="3">
         <f>E15/B15</f>
+        <v>0.92242822567088012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>220662.41952699999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>148569.93176000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>212778.74656999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>144840.661222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>57754.198665000004</v>
+      </c>
+      <c r="C22" s="3">
+        <v>52553.155832999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>57984.613772999997</v>
+      </c>
+      <c r="E22" s="3">
+        <v>52986.87586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B21+B22</f>
+        <v>278416.61819199997</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:E23" si="6">C21+C22</f>
+        <v>201123.087593</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="6"/>
+        <v>270763.36034299998</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="6"/>
+        <v>197827.537082</v>
+      </c>
+      <c r="I23" s="3">
+        <f>C23/B23</f>
+        <v>0.72238176334109028</v>
+      </c>
+      <c r="J23" s="3">
+        <f>D23/B23</f>
+        <v>0.9725114905184209</v>
+      </c>
+      <c r="K23" s="3">
+        <f>E23/B23</f>
         <v>0.71054500398239651</v>
       </c>
-      <c r="L15" s="3">
-        <f>E15/C15</f>
-        <v>0.98361426054840106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B24" s="3">
         <v>150832.12739000001</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C24" s="3">
         <v>134314.03226199999</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D24" s="3">
         <v>74694.563037</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E24" s="3">
         <v>70642.748315000004</v>
       </c>
-      <c r="I16" s="3">
-        <f>C16/B16</f>
+      <c r="I24" s="3">
+        <f>C24/B24</f>
         <v>0.89048689152749338</v>
       </c>
-      <c r="J16" s="3">
-        <f>D16/B16</f>
+      <c r="J24" s="3">
+        <f>D24/B24</f>
         <v>0.49521653197839971</v>
       </c>
-      <c r="K16" s="3">
-        <f>E16/B16</f>
+      <c r="K24" s="3">
+        <f>E24/B24</f>
         <v>0.46835345716726617</v>
       </c>
-      <c r="L16" s="3">
-        <f>E16/C16</f>
-        <v>0.52595210735093234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6111050.2242700001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5390048.4158469997</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5666120.1549669998</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5003206.323415</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25:I30" si="7">C25/B25</f>
+        <v>0.88201671039135865</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" ref="J25:J30" si="8">D25/B25</f>
+        <v>0.92719253598408291</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" ref="K25:K30" si="9">E25/B25</f>
+        <v>0.81871464638676927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25345511.329992</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14660559.975827999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24565761.493276998</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13812086.979924999</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="7"/>
+        <v>0.57842825835909573</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96923519014618165</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
+        <v>0.54495199564511443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B26-B25</f>
+        <v>19234461.105721999</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:E27" si="10">C26-C25</f>
+        <v>9270511.5599809997</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="10"/>
+        <v>18899641.33831</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="10"/>
+        <v>8808880.6565099992</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="7"/>
+        <v>0.48197407294260741</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98259271390180014</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="9"/>
+        <v>0.45797387346035251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>28729476.029723</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8906967.1220720001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>28454050.239682999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8613256.2012200002</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="7"/>
+        <v>0.31002887462538514</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99041312867122777</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="9"/>
+        <v>0.29980554439311319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2775406.9680699999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2775633.5962530002</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2774520.6994019998</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2771758.4381030002</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0000816558384438</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99968067073470801</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9986854072181216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B28-B29</f>
+        <v>25954069.061652999</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30:E30" si="11">C28-C29</f>
+        <v>6131333.5258189999</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="11"/>
+        <v>25679529.540280998</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="11"/>
+        <v>5841497.7631170005</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23623785200132694</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98942210099233985</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="9"/>
+        <v>0.22507059487438072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B31" s="3">
         <v>469.30447700000002</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C31" s="3">
         <v>793.92536900000005</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D31" s="3">
         <v>477.063738</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E31" s="3">
         <v>832.47481200000004</v>
       </c>
-      <c r="I17" s="3">
-        <f>B17/C17</f>
+      <c r="I31" s="3">
+        <f>B31/C31</f>
         <v>0.59111913452409148</v>
       </c>
-      <c r="J17" s="3">
-        <f>B17/D17</f>
+      <c r="J31" s="3">
+        <f>B31/D31</f>
         <v>0.98373537877238537</v>
       </c>
-      <c r="K17" s="3">
-        <f>B17/E17</f>
+      <c r="K31" s="3">
+        <f>B31/E31</f>
         <v>0.56374615812400097</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B37" s="3">
         <v>40715831.067000002</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C37" s="3">
         <v>8688710.7245000005</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D37" s="3">
         <v>30202759.653499998</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E37" s="3">
         <v>7973910.0724999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B38" s="3">
         <v>1871091.513</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C38" s="3">
         <v>653553.84750000003</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D38" s="3">
         <v>1420825.6295</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E38" s="3">
         <v>474439.25050000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4">
-        <f>B23+B24</f>
+      <c r="B39" s="4">
+        <f>B37+B38</f>
         <v>42586922.579999998</v>
       </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25:E25" si="2">C23+C24</f>
+      <c r="C39" s="4">
+        <f t="shared" ref="C39:E39" si="12">C37+C38</f>
         <v>9342264.5720000006</v>
       </c>
-      <c r="D25" s="4">
-        <f t="shared" si="2"/>
+      <c r="D39" s="4">
+        <f t="shared" si="12"/>
         <v>31623585.283</v>
       </c>
-      <c r="E25" s="4">
-        <f t="shared" si="2"/>
+      <c r="E39" s="4">
+        <f t="shared" si="12"/>
         <v>8448349.3229999989</v>
       </c>
-      <c r="I25" s="3">
-        <f>C25/B25</f>
+      <c r="I39" s="3">
+        <f>C39/B39</f>
         <v>0.21936932762517541</v>
       </c>
-      <c r="J25" s="3">
-        <f>D25/B25</f>
+      <c r="J39" s="3">
+        <f>D39/B39</f>
         <v>0.74256563675374176</v>
       </c>
-      <c r="K25" s="3">
-        <f>E25/B25</f>
+      <c r="K39" s="3">
+        <f>E39/B39</f>
         <v>0.1983789579331468</v>
       </c>
-      <c r="L25" s="3">
-        <f>E25/C25</f>
-        <v>0.90431492898636334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B40" s="3">
         <v>16986050.2445</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C40" s="3">
         <v>5764950.7165000001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D40" s="3">
         <v>1180749.4624999999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E40" s="3">
         <v>332630.49300000002</v>
       </c>
-      <c r="I26" s="3">
-        <f>C26/B26</f>
+      <c r="I40" s="3">
+        <f>C40/B40</f>
         <v>0.33939324525233067</v>
       </c>
-      <c r="J26" s="3">
-        <f>D26/B26</f>
+      <c r="J40" s="3">
+        <f>D40/B40</f>
         <v>6.9512891196252105E-2</v>
       </c>
-      <c r="K26" s="3">
-        <f>E26/B26</f>
+      <c r="K40" s="3">
+        <f>E40/B40</f>
         <v>1.9582568531946037E-2</v>
       </c>
-      <c r="L26" s="3">
-        <f>E26/C26</f>
-        <v>5.7698757432213692E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1551273060.911</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1516336715.0945001</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1505231036.9414999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1473696357.5005</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" ref="I41:I46" si="13">C41/B41</f>
+        <v>0.97747891928453701</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" ref="J41:J46" si="14">D41/B41</f>
+        <v>0.97031984559671169</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" ref="K41:K46" si="15">E41/B41</f>
+        <v>0.94999158731929345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1633134837.1355</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1524773488.1760001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1545981493.4749999</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1516808391.598</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="13"/>
+        <v>0.93364825334963497</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="14"/>
+        <v>0.94663432456479468</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="15"/>
+        <v>0.92877107089238564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B42-B41</f>
+        <v>81861776.224499941</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:E43" si="16">C42-C41</f>
+        <v>8436773.0815000534</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="16"/>
+        <v>40750456.533499956</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="16"/>
+        <v>43112034.097500086</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="13"/>
+        <v>0.10306120231697416</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="14"/>
+        <v>0.49779589953856862</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="15"/>
+        <v>0.52664425432534567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1640786628.2414999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1592814067.7985001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1602656289.0910001</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1604907391.6224999</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="13"/>
+        <v>0.9707624625790533</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="14"/>
+        <v>0.97676093984787915</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="15"/>
+        <v>0.97813290527760255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1598318904.5125</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1552172158.444</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1561271645.7939999</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1564697270.3759999</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="13"/>
+        <v>0.97112794828477911</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="14"/>
+        <v>0.97682110959589763</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="15"/>
+        <v>0.97896437685772419</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B44-B45</f>
+        <v>42467723.728999853</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" ref="C46:E46" si="17">C44-C45</f>
+        <v>40641909.354500055</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="17"/>
+        <v>41384643.29700017</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="17"/>
+        <v>40210121.246500015</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="13"/>
+        <v>0.95700701110916842</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="14"/>
+        <v>0.97449638603398747</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="15"/>
+        <v>0.94683956934197078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B47" s="3">
         <v>524.60500000000002</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C47" s="3">
         <v>547.41</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D47" s="3">
         <v>543.96500000000003</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E47" s="3">
         <v>557.83000000000004</v>
       </c>
-      <c r="I27" s="3">
-        <f>B27/C27</f>
+      <c r="I47" s="3">
+        <f>B47/C47</f>
         <v>0.95834018377450181</v>
       </c>
-      <c r="J27" s="3">
-        <f>B27/D27</f>
+      <c r="J47" s="3">
+        <f>B47/D47</f>
         <v>0.96440947487430251</v>
       </c>
-      <c r="K27" s="3">
-        <f>B27/E27</f>
+      <c r="K47" s="3">
+        <f>B47/E47</f>
         <v>0.94043884337522177</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" s="1" t="s">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B52" s="3">
         <v>95471868.693124995</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C52" s="3">
         <v>2867630.5165630002</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D52" s="3">
         <v>88783582.809062004</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E52" s="3">
         <v>1521575.1243749999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" s="1" t="s">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B53" s="3">
         <v>3622480.2303129998</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C53" s="3">
         <v>984319.51843699999</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D53" s="3">
         <v>3333920.8728129999</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E53" s="3">
         <v>478276.46687499998</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" s="1" t="s">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4">
-        <f>B32+B33</f>
+      <c r="B54" s="4">
+        <f>B52+B53</f>
         <v>99094348.923437998</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" ref="C34:E34" si="3">C32+C33</f>
+      <c r="C54" s="4">
+        <f t="shared" ref="C54:E54" si="18">C52+C53</f>
         <v>3851950.0350000001</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="3"/>
+      <c r="D54" s="4">
+        <f t="shared" si="18"/>
         <v>92117503.681875005</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" si="3"/>
+      <c r="E54" s="4">
+        <f t="shared" si="18"/>
         <v>1999851.5912499998</v>
       </c>
-      <c r="I34" s="3">
-        <f>C34/B34</f>
+      <c r="I54" s="3">
+        <f>C54/B54</f>
         <v>3.887154087844185E-2</v>
       </c>
-      <c r="J34" s="3">
-        <f>D34/B34</f>
+      <c r="J54" s="3">
+        <f>D54/B54</f>
         <v>0.92959391410953796</v>
       </c>
-      <c r="K34" s="3">
-        <f>E34/B34</f>
+      <c r="K54" s="3">
+        <f>E54/B54</f>
         <v>2.0181287964211963E-2</v>
       </c>
-      <c r="L34" s="3">
-        <f>E34/C34</f>
-        <v>0.51917900623807023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B55" s="3">
         <v>9583044.796875</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C55" s="3">
         <v>2362508.3725000001</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D55" s="3">
         <v>2914273.7112500002</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E55" s="3">
         <v>285642.35499999998</v>
       </c>
-      <c r="I35" s="3">
-        <f>C35/B35</f>
+      <c r="I55" s="3">
+        <f>C55/B55</f>
         <v>0.24653003534642834</v>
       </c>
-      <c r="J35" s="3">
-        <f>D35/B35</f>
+      <c r="J55" s="3">
+        <f>D55/B55</f>
         <v>0.30410728249964308</v>
       </c>
-      <c r="K35" s="3">
-        <f>E35/B35</f>
+      <c r="K55" s="3">
+        <f>E55/B55</f>
         <v>2.980705621799316E-2</v>
       </c>
-      <c r="L35" s="3">
-        <f>E35/C35</f>
-        <v>0.12090638844921171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1998658280.0634301</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1884104966.5237501</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1978577972.10531</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1887774544.3328099</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" ref="I56:I61" si="19">C56/B56</f>
+        <v>0.94268489281917445</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" ref="J56:J61" si="20">D56/B56</f>
+        <v>0.98995310596192421</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" ref="K56:K61" si="21">E56/B56</f>
+        <v>0.9445209134364374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2007905077.6312499</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1975615973.405</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2026184024.9868701</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1942151542.4349999</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="19"/>
+        <v>0.9839190086294608</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0091034917732187</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="21"/>
+        <v>0.96725266750467098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="I58" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J58" s="3" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="3" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2475235075.9331198</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2536606527.32093</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2506820482.1178098</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2484748857.7937498</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="19"/>
+        <v>1.0247941910586711</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0127605682756344</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="21"/>
+        <v>1.0038435872023361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2425530108.4484301</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2489359398.9840598</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2455354957.0293698</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2438590213.06812</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="19"/>
+        <v>1.026315604293389</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0122962186604305</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="21"/>
+        <v>1.0053844331077153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B59-B60</f>
+        <v>49704967.484689713</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" ref="C61:E61" si="22">C59-C60</f>
+        <v>47247128.336870193</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="22"/>
+        <v>51465525.088439941</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="22"/>
+        <v>46158644.725629807</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="19"/>
+        <v>0.95055143837330558</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="20"/>
+        <v>1.0354201540176546</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="21"/>
+        <v>0.92865254845700773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B62" s="3">
         <v>414.315</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C62" s="3">
         <v>439.27499999999998</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D62" s="3">
         <v>415.8</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E62" s="3">
         <v>439.69499999999999</v>
       </c>
-      <c r="I36" s="3">
-        <f>B36/C36</f>
+      <c r="I62" s="3">
+        <f>B62/C62</f>
         <v>0.94317910192931542</v>
       </c>
-      <c r="J36" s="3">
-        <f>B36/D36</f>
+      <c r="J62" s="3">
+        <f>B62/D62</f>
         <v>0.99642857142857144</v>
       </c>
-      <c r="K36" s="3">
-        <f>B36/E36</f>
+      <c r="K62" s="3">
+        <f>B62/E62</f>
         <v>0.94227817009517967</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="1" t="s">
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B67" s="3">
         <v>188655874.54249999</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C67" s="3">
         <v>189362021.36750001</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D67" s="3">
         <v>176016859.72749999</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E67" s="3">
         <v>168905688.095</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="s">
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B68" s="3">
         <v>83883996.337500006</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C68" s="3">
         <v>83678590.6875</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D68" s="3">
         <v>83413221.147499993</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E68" s="3">
         <v>80690930.282499999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="s">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4">
-        <f>B41+B42</f>
+      <c r="B69" s="4">
+        <f>B67+B68</f>
         <v>272539870.88</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" ref="C43:E43" si="4">C41+C42</f>
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:E69" si="23">C67+C68</f>
         <v>273040612.05500001</v>
       </c>
-      <c r="D43" s="4">
-        <f t="shared" si="4"/>
+      <c r="D69" s="4">
+        <f t="shared" si="23"/>
         <v>259430080.875</v>
       </c>
-      <c r="E43" s="4">
-        <f t="shared" si="4"/>
+      <c r="E69" s="4">
+        <f t="shared" si="23"/>
         <v>249596618.3775</v>
       </c>
-      <c r="I43" s="3">
-        <f>C43/B43</f>
+      <c r="I69" s="3">
+        <f>C69/B69</f>
         <v>1.0018373134667715</v>
       </c>
-      <c r="J43" s="3">
-        <f>D43/B43</f>
+      <c r="J69" s="3">
+        <f>D69/B69</f>
         <v>0.95189771697377712</v>
       </c>
-      <c r="K43" s="3">
-        <f>E43/B43</f>
+      <c r="K69" s="3">
+        <f>E69/B69</f>
         <v>0.91581689523658005</v>
       </c>
-      <c r="L43" s="3">
-        <f>E43/C43</f>
-        <v>0.91413733839426947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B70" s="4">
         <v>826626855.08000004</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C70" s="4">
         <v>824567132.23000002</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D70" s="4">
         <v>779790397.30999994</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E70" s="4">
         <v>791258657.28999996</v>
       </c>
-      <c r="I44" s="3">
-        <f>C44/B44</f>
+      <c r="I70" s="3">
+        <f>C70/B70</f>
         <v>0.99750827977902956</v>
       </c>
-      <c r="J44" s="3">
-        <f>D44/B44</f>
+      <c r="J70" s="3">
+        <f>D70/B70</f>
         <v>0.94334026594687959</v>
       </c>
-      <c r="K44" s="3">
-        <f>E44/B44</f>
+      <c r="K70" s="3">
+        <f>E70/B70</f>
         <v>0.95721382922337162</v>
       </c>
-      <c r="L44" s="3">
-        <f>E44/C44</f>
-        <v>0.95960489614724398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="3">
+        <v>35388438420.707397</v>
+      </c>
+      <c r="C71" s="3">
+        <v>35430393799.9049</v>
+      </c>
+      <c r="D71" s="3">
+        <v>34921808041.769897</v>
+      </c>
+      <c r="E71" s="3">
+        <v>34880732666.752502</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" ref="I71:I76" si="24">C71/B71</f>
+        <v>1.0011855674076016</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" ref="J71:J76" si="25">D71/B71</f>
+        <v>0.98681404436697462</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" ref="K71:K76" si="26">E71/B71</f>
+        <v>0.98565334395603588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3">
+        <v>36030648327.915001</v>
+      </c>
+      <c r="C72" s="3">
+        <v>36056316621.822502</v>
+      </c>
+      <c r="D72" s="3">
+        <v>35520501426.997398</v>
+      </c>
+      <c r="E72" s="3">
+        <v>35508158950.037399</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="24"/>
+        <v>1.0007124016663229</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="25"/>
+        <v>0.98584130664886305</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="26"/>
+        <v>0.98549875169820911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B72-B71</f>
+        <v>642209907.20760345</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73:E73" si="27">C72-C71</f>
+        <v>625922821.91760254</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="27"/>
+        <v>598693385.22750092</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="27"/>
+        <v>627426283.28489685</v>
+      </c>
+      <c r="I73" s="3">
+        <f t="shared" si="24"/>
+        <v>0.97463900025955863</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="25"/>
+        <v>0.93223941036768343</v>
+      </c>
+      <c r="K73" s="3">
+        <f t="shared" si="26"/>
+        <v>0.97698007496180284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="3">
+        <v>46751655130.150002</v>
+      </c>
+      <c r="C74" s="3">
+        <v>46762980871.297501</v>
+      </c>
+      <c r="D74" s="3">
+        <v>46748528350.517502</v>
+      </c>
+      <c r="E74" s="3">
+        <v>46747284103.184898</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="24"/>
+        <v>1.0002422532660282</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="25"/>
+        <v>0.99993311938104024</v>
+      </c>
+      <c r="K74" s="3">
+        <f t="shared" si="26"/>
+        <v>0.99990650540707204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="3">
+        <v>46086256393.125</v>
+      </c>
+      <c r="C75" s="3">
+        <v>46097081223.3349</v>
+      </c>
+      <c r="D75" s="3">
+        <v>46093250344.010002</v>
+      </c>
+      <c r="E75" s="3">
+        <v>46091212580.652397</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="24"/>
+        <v>1.000234881959549</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="25"/>
+        <v>1.0001517578434955</v>
+      </c>
+      <c r="K75" s="3">
+        <f t="shared" si="26"/>
+        <v>1.0001075415517615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3">
+        <f>B74-B75</f>
+        <v>665398737.02500153</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" ref="C76:E76" si="28">C74-C75</f>
+        <v>665899647.96260071</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="28"/>
+        <v>655278006.50749969</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="28"/>
+        <v>656071522.53250122</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="24"/>
+        <v>1.0007527981490298</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="25"/>
+        <v>0.98478997636401955</v>
+      </c>
+      <c r="K76" s="3">
+        <f t="shared" si="26"/>
+        <v>0.985982518490789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B77" s="3">
         <v>1029.3789999999999</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C77" s="3">
         <v>1029.58</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D77" s="3">
         <v>1015.258</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E77" s="3">
         <v>1014.2805</v>
       </c>
-      <c r="I45" s="3">
-        <f>C45/B45</f>
+      <c r="I77" s="3">
+        <f>C77/B77</f>
         <v>1.0001952633578108</v>
       </c>
-      <c r="J45" s="3">
-        <f>D45/B45</f>
+      <c r="J77" s="3">
+        <f>D77/B77</f>
         <v>0.98628202051916747</v>
       </c>
-      <c r="K45" s="3">
-        <f>E45/B45</f>
+      <c r="K77" s="3">
+        <f>E77/B77</f>
         <v>0.98533241886613199</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="1" t="s">
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B81" s="3">
         <v>8427.0303390000008</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C81" s="3">
         <v>3603.6612190000001</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D81" s="3">
         <v>6889.3490240000001</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E81" s="3">
         <v>2359.5764389999999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="s">
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B82" s="3">
         <v>1808.9779249999999</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C82" s="3">
         <v>660.76861199999996</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D82" s="3">
         <v>1740.2500010000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E82" s="3">
         <v>710.94306600000004</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="1" t="s">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4">
-        <f>B49+B50</f>
+      <c r="B83" s="4">
+        <f>B81+B82</f>
         <v>10236.008264</v>
       </c>
-      <c r="C51" s="4">
-        <f t="shared" ref="C51:E51" si="5">C49+C50</f>
+      <c r="C83" s="4">
+        <f t="shared" ref="C83:E83" si="29">C81+C82</f>
         <v>4264.4298310000004</v>
       </c>
-      <c r="D51" s="4">
-        <f t="shared" si="5"/>
+      <c r="D83" s="4">
+        <f t="shared" si="29"/>
         <v>8629.5990249999995</v>
       </c>
-      <c r="E51" s="4">
-        <f t="shared" si="5"/>
+      <c r="E83" s="4">
+        <f t="shared" si="29"/>
         <v>3070.5195050000002</v>
       </c>
-      <c r="I51" s="3">
-        <f>C51/B51</f>
+      <c r="I83" s="3">
+        <f>C83/B83</f>
         <v>0.41661062799235743</v>
       </c>
-      <c r="J51" s="3">
-        <f>D51/B51</f>
+      <c r="J83" s="3">
+        <f>D83/B83</f>
         <v>0.8430629208604945</v>
       </c>
-      <c r="K51" s="3">
-        <f>E51/B51</f>
+      <c r="K83" s="3">
+        <f>E83/B83</f>
         <v>0.299972355024273</v>
       </c>
-      <c r="L51" s="3">
-        <f>E51/C51</f>
-        <v>0.72003049098828042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B84" s="3">
         <v>6408.2293479999998</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C84" s="3">
         <v>4824.999409</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D84" s="3">
         <v>3754.8917740000002</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E84" s="3">
         <v>2823.4458119999999</v>
       </c>
-      <c r="I52" s="3">
-        <f>C52/B52</f>
+      <c r="I84" s="3">
+        <f>C84/B84</f>
         <v>0.75293800314838544</v>
       </c>
-      <c r="J52" s="3">
-        <f>D52/B52</f>
+      <c r="J84" s="3">
+        <f>D84/B84</f>
         <v>0.58594840635220036</v>
       </c>
-      <c r="K52" s="3">
-        <f>E52/B52</f>
+      <c r="K84" s="3">
+        <f>E84/B84</f>
         <v>0.44059687296947225</v>
       </c>
-      <c r="L52" s="3">
-        <f>E52/C52</f>
-        <v>0.58517018815245203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    </row>
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="3">
+        <v>217279.68176599999</v>
+      </c>
+      <c r="C85" s="3">
+        <v>210270.51710999999</v>
+      </c>
+      <c r="D85" s="3">
+        <v>209502.423239</v>
+      </c>
+      <c r="E85" s="3">
+        <v>202527.501514</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" ref="I85:I90" si="30">C85/B85</f>
+        <v>0.96774127889441341</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" ref="J85:J90" si="31">D85/B85</f>
+        <v>0.96420623196891575</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" ref="K85:K90" si="32">E85/B85</f>
+        <v>0.93210510926701651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3">
+        <v>260980.141061</v>
+      </c>
+      <c r="C86" s="3">
+        <v>254984.73745700001</v>
+      </c>
+      <c r="D86" s="3">
+        <v>254107.22073100001</v>
+      </c>
+      <c r="E86" s="3">
+        <v>245480.38287900001</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="30"/>
+        <v>0.97702735702561117</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="31"/>
+        <v>0.97366496813873071</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="32"/>
+        <v>0.94060943442291589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B86-B85</f>
+        <v>43700.459295000008</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" ref="C87:E87" si="33">C86-C85</f>
+        <v>44714.220347000024</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="33"/>
+        <v>44604.797492000012</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="33"/>
+        <v>42952.881365000008</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="30"/>
+        <v>1.0231979495949144</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="31"/>
+        <v>1.0206940204196773</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="32"/>
+        <v>0.98289313334321105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="3">
+        <v>152317.65119999999</v>
+      </c>
+      <c r="C88" s="3">
+        <v>154033.55352799999</v>
+      </c>
+      <c r="D88" s="3">
+        <v>151279.072862</v>
+      </c>
+      <c r="E88" s="3">
+        <v>150714.36313700001</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="30"/>
+        <v>1.0112652887861757</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99318149715533433</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="32"/>
+        <v>0.9894740494593447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="3">
+        <v>126995.697428</v>
+      </c>
+      <c r="C89" s="3">
+        <v>128439.259284</v>
+      </c>
+      <c r="D89" s="3">
+        <v>125832.658295</v>
+      </c>
+      <c r="E89" s="3">
+        <v>126062.639369</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="30"/>
+        <v>1.0113670138850053</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99084190128835359</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="32"/>
+        <v>0.99265283723860809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="3">
+        <f>B88-B89</f>
+        <v>25321.953771999993</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" ref="C90:E90" si="34">C88-C89</f>
+        <v>25594.29424399999</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="34"/>
+        <v>25446.414567</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="34"/>
+        <v>24651.723768000011</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="30"/>
+        <v>1.0107551129131727</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="31"/>
+        <v>1.0049151339632265</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="32"/>
+        <v>0.9735316630764449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B91" s="3">
         <v>847.11855000000003</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C91" s="3">
         <v>830.06489999999997</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D91" s="3">
         <v>824.84349999999995</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E91" s="3">
         <v>801.7396</v>
       </c>
-      <c r="I53" s="3">
-        <f>C53/B53</f>
+      <c r="I91" s="3">
+        <f>C91/B91</f>
         <v>0.97986863822070702</v>
       </c>
-      <c r="J53" s="3">
-        <f>D53/B53</f>
+      <c r="J91" s="3">
+        <f>D91/B91</f>
         <v>0.97370492004926579</v>
       </c>
-      <c r="K53" s="3">
-        <f>E53/B53</f>
+      <c r="K91" s="3">
+        <f>E91/B91</f>
         <v>0.94643140561613248</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A60" s="6" t="s">
+    <row r="98" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A98" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="4">
-        <v>1.00375365866577</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.92219103128893265</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0.92242822567088012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="B99" s="4">
+        <v>1.0039305990337721</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.94589073647791544</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0.94595777526632174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B100" s="4">
         <v>0.59111913452409148</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C100" s="4">
         <v>0.98373537877238537</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D100" s="4">
         <v>0.56374615812400097</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B101" s="3">
         <v>0.95834018377450181</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C101" s="3">
         <v>0.96440947487430251</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D101" s="3">
         <v>0.94043884337522177</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B102" s="3">
         <v>0.94317910192931542</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C102" s="3">
         <v>0.99642857142857144</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D102" s="3">
         <v>0.94227817009517967</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B103" s="4">
         <v>1.0001952633578108</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C103" s="4">
         <v>0.98628202051916747</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D103" s="4">
         <v>0.98533241886613199</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B104" s="4">
         <v>0.97986863822070702</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C104" s="4">
         <v>0.97370492004926579</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D104" s="4">
         <v>0.94643140561613248</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="126" x14ac:dyDescent="0.5">
-      <c r="A71" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="106" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="3">
-        <f>$D7/$B7</f>
-        <v>0.51541159723365515</v>
-      </c>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="B107" s="4">
+        <v>1.0029947169543463</v>
+      </c>
+      <c r="C107" s="4">
+        <v>7.2259364178484303E-2</v>
+      </c>
+      <c r="D107" s="4">
+        <v>5.5288601303161364E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0.88201671039135865</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.92719253598408291</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0.81871464638676927</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3">
+        <v>0.97747891928453701</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.97031984559671169</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.94999158731929345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0.94268489281917445</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.98995310596192421</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.9445209134364374</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1.0011855674076016</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0.98681404436697462</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0.98565334395603588</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0.96774127889441341</v>
+      </c>
+      <c r="C112" s="4">
+        <v>0.96420623196891575</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0.93210510926701651</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A116" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.51390766551399991</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.50130194702353226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="3">
-        <f>$D15/$B15</f>
+      <c r="B118" s="3">
+        <v>0.72238176334109028</v>
+      </c>
+      <c r="C118" s="4">
         <v>0.9725114905184209</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="D118" s="4">
+        <v>0.71054500398239651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="3">
-        <f>$D25/$B25</f>
+      <c r="B119" s="3">
+        <v>0.21936932762517541</v>
+      </c>
+      <c r="C119" s="4">
         <v>0.74256563675374176</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="D119" s="4">
+        <v>0.1983789579331468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="3">
-        <f>$D34/$B34</f>
+      <c r="B120" s="3">
+        <v>3.887154087844185E-2</v>
+      </c>
+      <c r="C120" s="4">
         <v>0.92959391410953796</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="D120" s="4">
+        <v>2.0181287964211963E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="3">
-        <f>$D43/$B43</f>
+      <c r="B121" s="3">
+        <v>1.0018373134667715</v>
+      </c>
+      <c r="C121" s="4">
         <v>0.95189771697377712</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="D121" s="4">
+        <v>0.91581689523658005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="3">
-        <f>$D51/$B51</f>
+      <c r="B122" s="3">
+        <v>0.41661062799235743</v>
+      </c>
+      <c r="C122" s="4">
         <v>0.8430629208604945</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="D122" s="4">
+        <v>0.299972355024273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A125" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="3">
-        <f>$E7/$C7</f>
-        <v>0.49154000020318295</v>
-      </c>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.51390766551399991</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0.50130194702353226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="3">
-        <f>$E15/$C15</f>
-        <v>0.98361426054840106</v>
-      </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="B127" s="3">
+        <v>0.89048689152749338</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0.49521653197839971</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.46835345716726617</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="3">
-        <f>$E25/$C25</f>
-        <v>0.90431492898636334</v>
-      </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="B128" s="3">
+        <v>0.33939324525233067</v>
+      </c>
+      <c r="C128" s="4">
+        <v>6.9512891196252105E-2</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1.9582568531946037E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="3">
-        <f>$E34/$C34</f>
-        <v>0.51917900623807023</v>
-      </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="B129" s="3">
+        <v>0.24653003534642834</v>
+      </c>
+      <c r="C129" s="4">
+        <v>0.30410728249964308</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2.980705621799316E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="3">
-        <f>$E43/$C43</f>
-        <v>0.91413733839426947</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="B130" s="3">
+        <v>0.99750827977902956</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0.94334026594687959</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0.95721382922337162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="3">
-        <f>$E51/$C51</f>
-        <v>0.72003049098828042</v>
-      </c>
-      <c r="C87" s="4"/>
+      <c r="B131" s="3">
+        <v>0.75293800314838544</v>
+      </c>
+      <c r="C131" s="4">
+        <v>0.58594840635220036</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0.44059687296947225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16A378-0A9A-445D-862C-8961953B4161}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>